--- a/String_Pull_Training/427/Training_Log.xlsx
+++ b/String_Pull_Training/427/Training_Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\String_Pull_Training\427\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github_TimeCells\String_Pulling_System\String_Pull_Training\427\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B2B22C-3C50-4EA5-A5C1-5E5255FE12E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23085" windowHeight="10620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -247,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -300,23 +290,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,11 +614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,26 +661,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>44952</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3">
-        <v>427</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44952</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>427</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -704,13 +688,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>44952</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>427</v>
       </c>
       <c r="D3">
@@ -720,14 +704,14 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>44952</v>
       </c>
       <c r="B4" t="s">
@@ -743,9 +727,9 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -753,7 +737,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>44952</v>
       </c>
       <c r="B5" t="s">
@@ -769,9 +753,9 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J5" t="s">
@@ -779,7 +763,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>44952</v>
       </c>
       <c r="B6" t="s">
@@ -795,9 +779,9 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J6" t="s">
@@ -805,7 +789,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>44952</v>
       </c>
       <c r="B7" t="s">
@@ -821,9 +805,9 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J7" t="s">
@@ -831,7 +815,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>44952</v>
       </c>
       <c r="B8" t="s">
@@ -847,14 +831,14 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>44952</v>
       </c>
       <c r="B9" t="s">
@@ -870,14 +854,14 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>44952</v>
       </c>
       <c r="B10" t="s">
@@ -893,14 +877,14 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" s="8">
+        <v>30</v>
+      </c>
+      <c r="G10" s="5">
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>44952</v>
       </c>
       <c r="B11" t="s">
@@ -916,14 +900,14 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>44952</v>
       </c>
       <c r="B12" t="s">
@@ -939,14 +923,14 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>44952</v>
       </c>
       <c r="B13" t="s">
@@ -962,14 +946,14 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>44952</v>
       </c>
       <c r="B14" t="s">
@@ -985,14 +969,14 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>44952</v>
       </c>
       <c r="B15" t="s">
@@ -1008,14 +992,14 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>44952</v>
       </c>
       <c r="B16" t="s">
@@ -1031,14 +1015,14 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>44952</v>
       </c>
       <c r="B17" t="s">
@@ -1054,423 +1038,423 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44952</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3">
-        <v>427</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="A18" s="3">
+        <v>44952</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>427</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>44952</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="3">
-        <v>427</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="A19" s="3">
+        <v>44952</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>427</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>44952</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="3">
-        <v>427</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="A20" s="3">
+        <v>44952</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>427</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>44952</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3">
-        <v>427</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="A21" s="3">
+        <v>44952</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>427</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>44952</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="3">
-        <v>427</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="A22" s="3">
+        <v>44952</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>427</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>44952</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="3">
-        <v>427</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="C23">
+        <v>427</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>44952</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3">
-        <v>427</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="C24">
+        <v>427</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>44952</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="3">
-        <v>427</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3</v>
-      </c>
-      <c r="G25" s="9" t="s">
+      <c r="C25">
+        <v>427</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>44952</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3">
-        <v>427</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3</v>
-      </c>
-      <c r="G26" s="9" t="s">
+      <c r="C26">
+        <v>427</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>44952</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="3">
-        <v>427</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>4</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="C27">
+        <v>427</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>45</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>44952</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="3">
-        <v>427</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3">
-        <v>4</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="C28">
+        <v>427</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>45</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>44952</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="3">
-        <v>427</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>2</v>
-      </c>
-      <c r="F29" s="3">
-        <v>4</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="C29">
+        <v>427</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>45</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>44952</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="3">
-        <v>427</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3">
-        <v>5</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="C30">
+        <v>427</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>60</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>44952</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="3">
-        <v>427</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3">
-        <v>5</v>
-      </c>
-      <c r="G31" s="9" t="s">
+      <c r="C31">
+        <v>427</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>60</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>44952</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="3">
-        <v>427</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="9" t="s">
+      <c r="C32">
+        <v>427</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>60</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>44952</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="3">
-        <v>427</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3">
-        <v>5</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="C33">
+        <v>427</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>60</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>44952</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="3">
-        <v>427</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3">
-        <v>5</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="C34">
+        <v>427</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>60</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>44952</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="3">
-        <v>427</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3">
-        <v>5</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="C35">
+        <v>427</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>60</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H35" t="s">
@@ -1478,692 +1462,692 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>44953</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="3">
-        <v>427</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2</v>
-      </c>
-      <c r="E36" s="3">
-        <v>3</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="6" t="s">
+      <c r="C36">
+        <v>427</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>44953</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="3">
-        <v>427</v>
-      </c>
-      <c r="D37" s="3">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3">
-        <v>3</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="C37">
+        <v>427</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>44953</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="3">
-        <v>427</v>
-      </c>
-      <c r="D38" s="3">
-        <v>2</v>
-      </c>
-      <c r="E38" s="3">
-        <v>3</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="6" t="s">
+      <c r="C38">
+        <v>427</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>44953</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="3">
-        <v>427</v>
-      </c>
-      <c r="D39" s="3">
-        <v>2</v>
-      </c>
-      <c r="E39" s="3">
-        <v>3</v>
-      </c>
-      <c r="F39" s="3">
-        <v>2</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="C39">
+        <v>427</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>44953</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="3">
-        <v>427</v>
-      </c>
-      <c r="D40" s="3">
-        <v>2</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3</v>
-      </c>
-      <c r="F40" s="3">
-        <v>2</v>
-      </c>
-      <c r="G40" s="6" t="s">
+      <c r="C40">
+        <v>427</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>12</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>44953</v>
       </c>
       <c r="B41" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="3">
-        <v>427</v>
-      </c>
-      <c r="D41" s="3">
-        <v>2</v>
-      </c>
-      <c r="E41" s="3">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2</v>
-      </c>
-      <c r="G41" s="6" t="s">
+      <c r="C41">
+        <v>427</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>12</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>44953</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="3">
-        <v>427</v>
-      </c>
-      <c r="D42" s="3">
-        <v>2</v>
-      </c>
-      <c r="E42" s="3">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3">
-        <v>3</v>
-      </c>
-      <c r="G42" s="6" t="s">
+      <c r="C42">
+        <v>427</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>30</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>44953</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="3">
-        <v>427</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2</v>
-      </c>
-      <c r="E43" s="3">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3">
-        <v>3</v>
-      </c>
-      <c r="G43" s="6" t="s">
+      <c r="C43">
+        <v>427</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>30</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>44953</v>
       </c>
       <c r="B44" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="3">
-        <v>427</v>
-      </c>
-      <c r="D44" s="3">
-        <v>2</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3</v>
-      </c>
-      <c r="G44" s="6" t="s">
+      <c r="C44">
+        <v>427</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>30</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>44953</v>
       </c>
       <c r="B45" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="3">
-        <v>427</v>
-      </c>
-      <c r="D45" s="3">
-        <v>2</v>
-      </c>
-      <c r="E45" s="3">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="C45">
+        <v>427</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>45</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46">
+        <v>427</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47">
+        <v>427</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>45</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48">
+        <v>427</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>60</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49">
+        <v>427</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>60</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50">
+        <v>427</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>60</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>427</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
         <v>4</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>44953</v>
-      </c>
-      <c r="B46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="3">
-        <v>427</v>
-      </c>
-      <c r="D46" s="3">
-        <v>2</v>
-      </c>
-      <c r="E46" s="3">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>427</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
         <v>4</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>44953</v>
-      </c>
-      <c r="B47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="3">
-        <v>427</v>
-      </c>
-      <c r="D47" s="3">
-        <v>2</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>427</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
         <v>4</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>44953</v>
-      </c>
-      <c r="B48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="3">
-        <v>427</v>
-      </c>
-      <c r="D48" s="3">
-        <v>2</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>44953</v>
-      </c>
-      <c r="B49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="3">
-        <v>427</v>
-      </c>
-      <c r="D49" s="3">
-        <v>2</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3">
-        <v>5</v>
-      </c>
-      <c r="G49" s="6" t="s">
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>427</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>12</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>427</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>12</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>427</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>12</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>427</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>30</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>44953</v>
-      </c>
-      <c r="B50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="3">
-        <v>427</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2</v>
-      </c>
-      <c r="E50" s="3">
-        <v>3</v>
-      </c>
-      <c r="F50" s="3">
-        <v>5</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>44959</v>
       </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="3">
-        <v>427</v>
-      </c>
-      <c r="D51" s="3">
-        <v>3</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>427</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
         <v>4</v>
       </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="6" t="s">
+      <c r="F58">
+        <v>30</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>427</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>44959</v>
       </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="3">
-        <v>427</v>
-      </c>
-      <c r="D52" s="3">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>427</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="F60">
+        <v>45</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>44959</v>
       </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="3">
-        <v>427</v>
-      </c>
-      <c r="D53" s="3">
-        <v>3</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>427</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
         <v>4</v>
       </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="F61">
+        <v>45</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>44959</v>
       </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="3">
-        <v>427</v>
-      </c>
-      <c r="D54" s="3">
-        <v>3</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>427</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
         <v>4</v>
       </c>
-      <c r="F54" s="3">
-        <v>2</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="F62">
+        <v>45</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>44959</v>
       </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="3">
-        <v>427</v>
-      </c>
-      <c r="D55" s="3">
-        <v>3</v>
-      </c>
-      <c r="E55" s="3">
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>427</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
         <v>4</v>
       </c>
-      <c r="F55" s="3">
-        <v>2</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="F63">
+        <v>60</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>44959</v>
       </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="3">
-        <v>427</v>
-      </c>
-      <c r="D56" s="3">
-        <v>3</v>
-      </c>
-      <c r="E56" s="3">
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>427</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
         <v>4</v>
       </c>
-      <c r="F56" s="3">
-        <v>2</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="F64">
+        <v>60</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>44959</v>
       </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="3">
-        <v>427</v>
-      </c>
-      <c r="D57" s="3">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>427</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
         <v>4</v>
       </c>
-      <c r="F57" s="3">
-        <v>3</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>44959</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="3">
-        <v>427</v>
-      </c>
-      <c r="D58" s="3">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>44959</v>
-      </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="3">
-        <v>427</v>
-      </c>
-      <c r="D59" s="3">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>3</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>44959</v>
-      </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="3">
-        <v>427</v>
-      </c>
-      <c r="D60" s="3">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3">
-        <v>4</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>44959</v>
-      </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="3">
-        <v>427</v>
-      </c>
-      <c r="D61" s="3">
-        <v>3</v>
-      </c>
-      <c r="E61" s="3">
-        <v>4</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>44959</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="3">
-        <v>427</v>
-      </c>
-      <c r="D62" s="3">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>44959</v>
-      </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="3">
-        <v>427</v>
-      </c>
-      <c r="D63" s="3">
-        <v>3</v>
-      </c>
-      <c r="E63" s="3">
-        <v>4</v>
-      </c>
-      <c r="F63" s="3">
-        <v>5</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>44959</v>
-      </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="3">
-        <v>427</v>
-      </c>
-      <c r="D64" s="3">
-        <v>3</v>
-      </c>
-      <c r="E64" s="3">
-        <v>4</v>
-      </c>
-      <c r="F64" s="3">
-        <v>5</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>44959</v>
-      </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="3">
-        <v>427</v>
-      </c>
-      <c r="D65" s="3">
-        <v>3</v>
-      </c>
-      <c r="E65" s="3">
-        <v>4</v>
-      </c>
-      <c r="F65" s="3">
-        <v>5</v>
-      </c>
-      <c r="G65" s="6" t="s">
+      <c r="F65">
+        <v>60</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2177,169 +2161,169 @@
       <c r="J70" s="2"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
+      <c r="A72" s="3"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
+      <c r="A73" s="3"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
+      <c r="A74" s="3"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
+      <c r="A75" s="3"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
+      <c r="A76" s="3"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
+      <c r="A77" s="3"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
+      <c r="A78" s="3"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
+      <c r="A79" s="3"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
+      <c r="A80" s="3"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
+      <c r="A81" s="3"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
+      <c r="A82" s="3"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
+      <c r="A83" s="3"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
+      <c r="A84" s="3"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
+      <c r="A85" s="3"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
+      <c r="A86" s="3"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
+      <c r="A87" s="3"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
+      <c r="A88" s="3"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
+      <c r="A89" s="3"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
+      <c r="A90" s="3"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
+      <c r="A91" s="3"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
+      <c r="A92" s="3"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
+      <c r="A93" s="3"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
+      <c r="A94" s="3"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
+      <c r="A95" s="3"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
+      <c r="A96" s="3"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
+      <c r="A97" s="3"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
+      <c r="A98" s="3"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
+      <c r="A99" s="3"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
+      <c r="A100" s="3"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
+      <c r="A101" s="3"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
+      <c r="A102" s="3"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
+      <c r="A103" s="3"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
+      <c r="A104" s="3"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
+      <c r="A105" s="3"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
+      <c r="A106" s="3"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
+      <c r="A107" s="3"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
+      <c r="A108" s="3"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
+      <c r="A109" s="3"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
+      <c r="A110" s="3"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
+      <c r="A111" s="3"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
+      <c r="A112" s="3"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
+      <c r="A113" s="3"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
+      <c r="A114" s="3"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
+      <c r="A115" s="3"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
+      <c r="A116" s="3"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
+      <c r="A117" s="3"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
+      <c r="A118" s="3"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
+      <c r="A119" s="3"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
+      <c r="A120" s="3"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
+      <c r="A121" s="3"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
+      <c r="A122" s="3"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
+      <c r="A123" s="3"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
+      <c r="A124" s="3"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
+      <c r="A125" s="3"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
+      <c r="A127" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
